--- a/Study and sample lists for ArcGIS Online.xlsx
+++ b/Study and sample lists for ArcGIS Online.xlsx
@@ -88,9 +88,6 @@
     <t>HAIR_HG</t>
   </si>
   <si>
-    <t xml:space="preserve">Longitude  </t>
-  </si>
-  <si>
     <t>Point_Y</t>
   </si>
   <si>
@@ -100,18 +97,9 @@
     <t>Hg_ss_avg</t>
   </si>
   <si>
-    <t xml:space="preserve">Latitude  </t>
-  </si>
-  <si>
-    <t>Point_Y_latitude</t>
-  </si>
-  <si>
     <t>Point_X_longitude</t>
   </si>
   <si>
-    <t>HgAvgFish(ppm)</t>
-  </si>
-  <si>
     <t>hgt_avg</t>
   </si>
   <si>
@@ -119,6 +107,18 @@
   </si>
   <si>
     <t>LON</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>HgAvgFish (ppm)</t>
+  </si>
+  <si>
+    <t>Point_Y_ latitude</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,10 +525,10 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -545,13 +545,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -565,13 +565,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,13 +585,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
